--- a/01_Input/00_CO Validation/Kosovo - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Kosovo - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blin.berdoniqi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{4DE356E2-5E12-4618-9FFB-C2B3968440F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62BAB883-B009-4E0C-82F4-1C771BE02629}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{4DE356E2-5E12-4618-9FFB-C2B3968440F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86EDD422-57B0-45E4-A174-0EE571381309}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
   <si>
     <t>Project ID</t>
   </si>
@@ -125,9 +128,6 @@
     <t>Renewable Energy</t>
   </si>
   <si>
-    <t>00124575</t>
-  </si>
-  <si>
     <t>Transport Services</t>
   </si>
   <si>
@@ -146,16 +146,10 @@
     <t>Energy Efficiency</t>
   </si>
   <si>
-    <t>00124576</t>
-  </si>
-  <si>
     <t>3 systems installed 125.93 MWh/year) MW</t>
   </si>
   <si>
     <t xml:space="preserve">In 2023, three solar photovoltaic (PV) systems will be installed in public buildings, benefiting the municipalities of Prizren and Suhareka. </t>
-  </si>
-  <si>
-    <t>00124577</t>
   </si>
   <si>
     <t>Campaign Participant</t>
@@ -205,40 +199,49 @@
     <t>Member of Climate Change Council trained for NDC development</t>
   </si>
   <si>
+    <t>Education Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A training program for solar installers has attracted individuals interested in energy activities. The program aimed to equip participants with the necessary skills for solar system installation. Out of the 35 individuals who enrolled in the training, 28 individuals successfully completed the program and earned their certification in solar system installation. </t>
+  </si>
+  <si>
+    <t>Medium Enterprises</t>
+  </si>
+  <si>
+    <t># of companies trained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The green business accelerator, Boost x Kosovo, has successfully trained over 130 individuals and 50 companies in various aspects of sustainable practices. This program aims to accelerate the growth of green businesses and promote environmentally friendly initiatives. As a result, 32 participants were awarded grants totaling 332,000 euros. These grants will be utilized to support and enhance green transformation projects, such as the implementation of solar systems, biomass utilization, energy efficiency improvements, and more. </t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t># of individuals trained</t>
+  </si>
+  <si>
+    <t>The Earth Day campaigns and Energy Efficiency Campaigns successfully reached out to a wide audience, engaging at least 1600 individuals. These initiatives aimed to raise awareness about environmental conservation and the importance of energy efficiency.</t>
+  </si>
+  <si>
+    <t>00124575</t>
+  </si>
+  <si>
+    <t>00124576</t>
+  </si>
+  <si>
+    <t>00124577</t>
+  </si>
+  <si>
     <t>00130767</t>
   </si>
   <si>
-    <t>Education Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A training program for solar installers has attracted individuals interested in energy activities. The program aimed to equip participants with the necessary skills for solar system installation. Out of the 35 individuals who enrolled in the training, 28 individuals successfully completed the program and earned their certification in solar system installation. </t>
-  </si>
-  <si>
     <t>00130768</t>
   </si>
   <si>
     <t>https://boostimpact.org/challenges/the-kosovo-green-challenge/</t>
   </si>
   <si>
-    <t>Medium Enterprises</t>
-  </si>
-  <si>
-    <t># of companies trained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The green business accelerator, Boost x Kosovo, has successfully trained over 130 individuals and 50 companies in various aspects of sustainable practices. This program aims to accelerate the growth of green businesses and promote environmentally friendly initiatives. As a result, 32 participants were awarded grants totaling 332,000 euros. These grants will be utilized to support and enhance green transformation projects, such as the implementation of solar systems, biomass utilization, energy efficiency improvements, and more. </t>
-  </si>
-  <si>
-    <t>Entrepreneurship Training</t>
-  </si>
-  <si>
-    <t># of individuals trained</t>
-  </si>
-  <si>
     <t>00130769</t>
-  </si>
-  <si>
-    <t>The Earth Day campaigns and Energy Efficiency Campaigns successfully reached out to a wide audience, engaging at least 1600 individuals. These initiatives aimed to raise awareness about environmental conservation and the importance of energy efficiency.</t>
   </si>
   <si>
     <t># of systems installed (53.76 KWp/70 MWh/year)</t>
@@ -591,7 +594,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -657,66 +660,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -741,6 +684,81 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1050,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C58D4B-AF56-46AC-89E7-4807C4DC4588}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1095,7 +1113,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
@@ -1139,8 +1157,8 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="25">
-        <v>1150000</v>
+      <c r="D2" s="36">
+        <v>1220000</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -1154,44 +1172,38 @@
       <c r="H2" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" spans="1:19" ht="167.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -1199,46 +1211,40 @@
       <c r="H3" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="48" t="s">
+      <c r="N3" s="25"/>
+      <c r="O3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45" t="s">
+      <c r="P3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
     </row>
     <row r="4" spans="1:19" ht="60.75">
-      <c r="A4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -1246,44 +1252,38 @@
       <c r="H4" s="6">
         <v>0.04</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" ht="76.5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-    </row>
-    <row r="5" spans="1:19" ht="76.5">
-      <c r="A5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -1291,42 +1291,42 @@
       <c r="H5" s="6">
         <v>100</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="25"/>
+      <c r="L5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
     </row>
     <row r="6" spans="1:19" ht="45.75">
       <c r="A6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="36">
+        <v>704052</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="28">
-        <v>704052</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -1334,38 +1334,32 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
+      <c r="I6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="137.25">
-      <c r="A7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1373,36 +1367,30 @@
       <c r="H7" s="8">
         <v>28</v>
       </c>
-      <c r="I7" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
+      <c r="I7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
     </row>
     <row r="8" spans="1:19" ht="213">
-      <c r="A8" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="29"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G8" s="24">
         <v>0</v>
@@ -1410,63 +1398,57 @@
       <c r="H8" s="23">
         <v>50</v>
       </c>
-      <c r="I8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
+      <c r="I8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="8">
         <v>130</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
     </row>
     <row r="10" spans="1:19" ht="106.5">
-      <c r="A10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="30"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1474,27 +1456,25 @@
       <c r="H10" s="8">
         <v>1600</v>
       </c>
-      <c r="I10" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
+      <c r="I10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D10"/>
+  <mergeCells count="3">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1539,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5CD1FF-9470-4A84-AC9B-6EA4DF359BBB}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D10"/>
     </sheetView>
   </sheetViews>
@@ -1625,7 +1605,7 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="43">
         <v>1150000</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1660,7 +1640,7 @@
     </row>
     <row r="3" spans="1:19" ht="167.25">
       <c r="A3" s="14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>20</v>
@@ -1668,12 +1648,12 @@
       <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -1682,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
@@ -1691,18 +1671,18 @@
         <v>26</v>
       </c>
       <c r="M3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="60.75">
       <c r="A4" s="14" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -1710,12 +1690,12 @@
       <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -1724,7 +1704,7 @@
         <v>0.04</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
@@ -1741,7 +1721,7 @@
     </row>
     <row r="5" spans="1:19" ht="76.5">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
@@ -1749,12 +1729,12 @@
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -1763,7 +1743,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -1774,22 +1754,22 @@
     </row>
     <row r="6" spans="1:19" ht="45.75">
       <c r="A6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="46">
+        <v>704052</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="28">
-        <v>704052</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -1798,28 +1778,28 @@
         <v>15</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="137.25">
       <c r="A7" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1828,25 +1808,25 @@
         <v>28</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="213">
-      <c r="A8" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="29"/>
+      <c r="A8" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="47"/>
       <c r="E8" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G8" s="24">
         <v>0</v>
@@ -1855,19 +1835,19 @@
         <v>50</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="8">
@@ -1877,20 +1857,20 @@
     </row>
     <row r="10" spans="1:19" ht="106.5">
       <c r="A10" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="30"/>
+        <v>42</v>
+      </c>
+      <c r="D10" s="48"/>
       <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1899,7 +1879,7 @@
         <v>1600</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2013,7 +1993,7 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="49">
         <v>1150000</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2038,7 +2018,7 @@
     </row>
     <row r="3" spans="1:11" ht="167.25">
       <c r="A3" s="14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>20</v>
@@ -2046,12 +2026,12 @@
       <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2060,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
@@ -2068,7 +2048,7 @@
     </row>
     <row r="4" spans="1:11" ht="60.75">
       <c r="A4" s="14" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -2076,7 +2056,7 @@
       <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
@@ -2090,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
@@ -2098,7 +2078,7 @@
     </row>
     <row r="5" spans="1:11" ht="76.5">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
@@ -2106,12 +2086,12 @@
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2120,7 +2100,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -2128,22 +2108,22 @@
     </row>
     <row r="6" spans="1:11" ht="45.75">
       <c r="A6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="52">
+        <v>704052</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="38">
-        <v>704052</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -2152,25 +2132,25 @@
         <v>15</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="137.25">
       <c r="A7" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -2179,25 +2159,25 @@
         <v>28</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="213">
       <c r="A8" s="15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="D8" s="53"/>
       <c r="E8" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
@@ -2206,25 +2186,25 @@
         <v>50</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="106.5">
       <c r="A9" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="40"/>
+        <v>42</v>
+      </c>
+      <c r="D9" s="54"/>
       <c r="E9" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -2233,7 +2213,7 @@
         <v>1600</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15">
@@ -2291,7 +2271,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B2" t="s">
@@ -2302,7 +2282,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="55"/>
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -2311,7 +2291,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="55"/>
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -2320,7 +2300,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="56" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
@@ -2331,7 +2311,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="56"/>
       <c r="B6" t="s">
         <v>76</v>
       </c>
@@ -2340,7 +2320,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="56"/>
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -2349,16 +2329,16 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
         <v>62</v>
       </c>
@@ -2367,18 +2347,18 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="57" t="s">
         <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="57"/>
       <c r="B11" t="s">
         <v>84</v>
       </c>
@@ -2387,29 +2367,29 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="58" t="s">
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="58"/>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="58"/>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
@@ -2449,6 +2429,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2697,7 +2686,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2708,23 +2697,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BBB17A7-BDD0-4B44-881E-B1716FC76EE9}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
--- a/01_Input/00_CO Validation/Kosovo - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Kosovo - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blin.berdoniqi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{4DE356E2-5E12-4618-9FFB-C2B3968440F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86EDD422-57B0-45E4-A174-0EE571381309}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{4DE356E2-5E12-4618-9FFB-C2B3968440F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21CCE784-1D30-4709-9BD2-2F84153EDC84}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,10 +74,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -98,7 +95,13 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
-    <t>00124574</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Strengthening Local Climate Action</t>
@@ -122,15 +125,15 @@
     <t>Non-VF</t>
   </si>
   <si>
+    <t>Solar</t>
+  </si>
+  <si>
     <t>Close the gap on energy access</t>
   </si>
   <si>
     <t>Renewable Energy</t>
   </si>
   <si>
-    <t>Transport Services</t>
-  </si>
-  <si>
     <t xml:space="preserve"># of EV chargers </t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>100 Highschoolers students have been participating in the awareness campaign and capacity building programs for Renewable Energy Systems with a special focus on Solar Energy.</t>
-  </si>
-  <si>
-    <t>00130766</t>
   </si>
   <si>
     <r>
@@ -190,48 +190,66 @@
     <t>https://climatepromise.undp.org/what-we-do/where-we-work/kosovo</t>
   </si>
   <si>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t># of people trained</t>
+  </si>
+  <si>
+    <t>Member of Climate Change Council trained for NDC development</t>
+  </si>
+  <si>
+    <t>Education Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A training program for solar installers has attracted individuals interested in energy activities. The program aimed to equip participants with the necessary skills for solar system installation. Out of the 35 individuals who enrolled in the training, 28 individuals successfully completed the program and earned their certification in solar system installation. </t>
+  </si>
+  <si>
+    <t>Medium Enterprises</t>
+  </si>
+  <si>
+    <t># of companies trained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The green business accelerator, Boost x Kosovo, has successfully trained over 130 individuals and 50 companies in various aspects of sustainable practices. This program aims to accelerate the growth of green businesses and promote environmentally friendly initiatives. As a result, 32 participants were awarded grants totaling 332,000 euros. These grants will be utilized to support and enhance green transformation projects, such as the implementation of solar systems, biomass utilization, energy efficiency improvements, and more. </t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t># of individuals trained</t>
+  </si>
+  <si>
+    <t>The Earth Day campaigns and Energy Efficiency Campaigns successfully reached out to a wide audience, engaging at least 1600 individuals. These initiatives aimed to raise awareness about environmental conservation and the importance of energy efficiency.</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>00124574</t>
+  </si>
+  <si>
+    <t>00124575</t>
+  </si>
+  <si>
+    <t>Transport Services</t>
+  </si>
+  <si>
+    <t>00124576</t>
+  </si>
+  <si>
+    <t>00124577</t>
+  </si>
+  <si>
+    <t>00130766</t>
+  </si>
+  <si>
     <t>Capacity Training</t>
   </si>
   <si>
-    <t># of people trained</t>
-  </si>
-  <si>
-    <t>Member of Climate Change Council trained for NDC development</t>
-  </si>
-  <si>
-    <t>Education Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A training program for solar installers has attracted individuals interested in energy activities. The program aimed to equip participants with the necessary skills for solar system installation. Out of the 35 individuals who enrolled in the training, 28 individuals successfully completed the program and earned their certification in solar system installation. </t>
-  </si>
-  <si>
-    <t>Medium Enterprises</t>
-  </si>
-  <si>
-    <t># of companies trained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The green business accelerator, Boost x Kosovo, has successfully trained over 130 individuals and 50 companies in various aspects of sustainable practices. This program aims to accelerate the growth of green businesses and promote environmentally friendly initiatives. As a result, 32 participants were awarded grants totaling 332,000 euros. These grants will be utilized to support and enhance green transformation projects, such as the implementation of solar systems, biomass utilization, energy efficiency improvements, and more. </t>
-  </si>
-  <si>
-    <t>Entrepreneurship Training</t>
-  </si>
-  <si>
-    <t># of individuals trained</t>
-  </si>
-  <si>
-    <t>The Earth Day campaigns and Energy Efficiency Campaigns successfully reached out to a wide audience, engaging at least 1600 individuals. These initiatives aimed to raise awareness about environmental conservation and the importance of energy efficiency.</t>
-  </si>
-  <si>
-    <t>00124575</t>
-  </si>
-  <si>
-    <t>00124576</t>
-  </si>
-  <si>
-    <t>00124577</t>
-  </si>
-  <si>
     <t>00130767</t>
   </si>
   <si>
@@ -256,58 +274,73 @@
     <t>For any target with an indicator "# of systems installed", this will need a conversion to beneficiaries listed in the notes. Or, you can provide the capacity installed in MW</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Support for the development of medium enterprises in the energy transition market</t>
@@ -319,25 +352,22 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -356,12 +386,18 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,49 +473,26 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -499,8 +512,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -588,177 +607,422 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1066,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C58D4B-AF56-46AC-89E7-4807C4DC4588}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1083,431 +1347,539 @@
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="36.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="47.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:28" ht="18.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="106.5">
-      <c r="A2" s="14" t="s">
+      <c r="T1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="U1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:28" ht="106.5">
+      <c r="A2" s="39">
+        <v>124574</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36">
+      <c r="C2" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="27">
         <v>1220000</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6">
+      <c r="F2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="26">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27" t="s">
+      <c r="J2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19" ht="167.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="6" t="s">
+      <c r="T2" s="22"/>
+      <c r="U2" s="72"/>
+      <c r="X2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="AB2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6">
+    </row>
+    <row r="3" spans="1:28" ht="167.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="91">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="91">
         <v>2</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="27" t="s">
+      <c r="I3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="72"/>
+      <c r="X3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-    </row>
-    <row r="4" spans="1:19" ht="60.75">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="AB3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="6">
+    </row>
+    <row r="4" spans="1:28" ht="60.75">
+      <c r="A4" s="45"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="26">
         <v>0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="26">
         <v>0.04</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="27" t="s">
+      <c r="I4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="M4" s="22"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-    </row>
-    <row r="5" spans="1:19" ht="76.5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="72"/>
+      <c r="X4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="76.5">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="26">
         <v>100</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="72"/>
+      <c r="X5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+    </row>
+    <row r="6" spans="1:28" ht="45.75">
+      <c r="A6" s="53">
+        <v>130766</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="56">
+        <v>704052</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>15</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="72"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="29"/>
+    </row>
+    <row r="7" spans="1:28" ht="137.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>28</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="72"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+    </row>
+    <row r="8" spans="1:28" ht="213">
+      <c r="A8" s="89"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <v>50</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="72"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="89"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="26">
+        <v>130</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="72"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+    </row>
+    <row r="10" spans="1:28" ht="106.5">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-    </row>
-    <row r="6" spans="1:19" ht="45.75">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="36">
-        <v>704052</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="G10" s="26">
         <v>0</v>
       </c>
-      <c r="H6" s="8">
-        <v>15</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-    </row>
-    <row r="7" spans="1:19" ht="137.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>28</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-    </row>
-    <row r="8" spans="1:19" ht="213">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
-        <v>50</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="8">
-        <v>130</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="1:19" ht="106.5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="H10" s="26">
         <v>1600</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="18"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="72"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S10 T2" xr:uid="{BD3517BF-52CE-4CBD-A829-6DE6E456AA70}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R10" xr:uid="{1903FAFB-16C1-493F-902E-086D0A26FC89}">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q10" xr:uid="{1903FAFB-16C1-493F-902E-086D0A26FC89}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q10" xr:uid="{95C10871-6C7A-4942-A0EE-D668A6751D1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P10" xr:uid="{95C10871-6C7A-4942-A0EE-D668A6751D1A}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P10" xr:uid="{47C99ACA-9AF7-4987-985D-C08C8F1856A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB10" xr:uid="{47C99ACA-9AF7-4987-985D-C08C8F1856A2}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O10" xr:uid="{B9D23206-497E-43DF-A66B-8DB80A9212E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA10 N2:N10" xr:uid="{B9D23206-497E-43DF-A66B-8DB80A9212E4}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{13C3CF28-FAF8-48E2-A604-542D4D7B233A}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O10" xr:uid="{0D0DA9D4-76F3-4A9C-9A3E-36FF6EF57CCE}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L10" xr:uid="{8A88A346-3078-469C-9B4E-8D6BCC2AEFED}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M10" xr:uid="{D9DE5EA4-161C-4DB0-9DD0-2453ADBA21DB}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T10" xr:uid="{C4B0DEC4-AFB0-49D6-85A4-DD3F5B413C3D}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R10" xr:uid="{F4146B98-99BD-4254-8326-AD8A99F3548C}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S10" xr:uid="{C2369686-0951-4D0B-8C14-5F9567A840D5}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location=":~:text=The%20project%20supports%20Kosovo%20municipalities,Municipality%20of%20Suharek%C3%AB%2FSuva%20Reka" xr:uid="{87F04B92-BD13-43DB-9904-327B77C6CF0B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E575982D-1141-4F33-9D4B-D4F82D4DE160}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D47DB21-3845-459D-8A7B-6215FB039FF1}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2 E4:E10</xm:sqref>
+          <xm:sqref>E2:E10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1540,350 +1912,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:19" ht="106.5">
-      <c r="A2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="43">
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="73">
         <v>1150000</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="167.25">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="60.75">
+      <c r="A4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6">
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="20" t="s">
+      <c r="H4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="O2" t="s">
+      <c r="L4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="76.5">
+      <c r="A5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45.75">
+      <c r="A6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="76">
+        <v>704052</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="137.25">
+      <c r="A7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="167.25">
-      <c r="A3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="I7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="213">
+      <c r="A8" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="21">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="60.75">
-      <c r="A4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="H8" s="20">
+        <v>50</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5">
+        <v>130</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" ht="106.5">
+      <c r="A10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="76.5">
-      <c r="A5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>100</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="45.75">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="46">
-        <v>704052</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>15</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="137.25">
-      <c r="A7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>28</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="213">
-      <c r="A8" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
-        <v>50</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="8">
-        <v>130</v>
-      </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:19" ht="106.5">
-      <c r="A10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="H10" s="5">
         <v>1600</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="18"/>
+      <c r="A13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1893,7 +2265,7 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{F9A91EB7-214F-48FA-912C-2CFFE3B8FB02}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O10" xr:uid="{D4B41F5B-510A-4182-AC10-33041A2418B1}">
@@ -1919,7 +2291,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D5106D0-8AA4-49C7-95D6-58507C7E90F4}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2 E4:E10</xm:sqref>
         </x14:dataValidation>
@@ -1952,273 +2324,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="106.5">
-      <c r="A2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49">
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="83">
         <v>1150000</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="167.25">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60.75">
+      <c r="A4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="76.5">
+      <c r="A5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45.75">
+      <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="6">
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="86">
+        <v>704052</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" ht="167.25">
-      <c r="A3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="H6" s="5">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="137.25">
+      <c r="A7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="87"/>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60.75">
-      <c r="A4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="H7" s="5">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="213">
+      <c r="A8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="6">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="76.5">
-      <c r="A5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="H8" s="5">
+        <v>50</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="106.5">
+      <c r="A9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
-        <v>100</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45.75">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="52">
-        <v>704052</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>15</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="137.25">
-      <c r="A7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>28</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="213">
-      <c r="A8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>50</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="106.5">
-      <c r="A9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <v>1600</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="18" t="s">
-        <v>64</v>
+      <c r="A12" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2598,7 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D9"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2234,7 +2606,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF404E26-67A6-40D5-A4BB-66ACDC63AFDF}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E9</xm:sqref>
         </x14:dataValidation>
@@ -2246,195 +2618,208 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="55"/>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="55"/>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="56"/>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="56"/>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="56"/>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="56"/>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B13" s="93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="57"/>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="58"/>
-      <c r="B13" t="s">
+      <c r="B17" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="58"/>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
+      <c r="B18" s="93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2687,18 +3072,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2706,5 +3089,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>